--- a/fichier/8 - BTS SIO - Annexe 8-1 - Tableau de synthese - Epreuve E5 hamza - 2025.xlsx
+++ b/fichier/8 - BTS SIO - Annexe 8-1 - Tableau de synthese - Epreuve E5 hamza - 2025.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t xml:space="preserve">BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -986,8 +986,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1285,9 +1285,7 @@
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="F9" s="21"/>
       <c r="G9" s="21" t="s">
         <v>27</v>
       </c>
@@ -1323,9 +1321,7 @@
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="22"/>
       <c r="I10" s="6"/>
@@ -1357,9 +1353,7 @@
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="22" t="s">
         <v>26</v>
